--- a/Esquematico-(convertir).xlsx
+++ b/Esquematico-(convertir).xlsx
@@ -500,16 +500,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,16 +531,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,14 +813,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC104" sqref="AC104"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:38" x14ac:dyDescent="0.25">
@@ -1028,11 +1028,11 @@
     <row r="8" spans="3:38" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="2"/>
       <c r="L8" s="3"/>
     </row>
@@ -1063,9 +1063,9 @@
       <c r="L10" s="6"/>
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
     </row>
@@ -1194,11 +1194,11 @@
       <c r="P15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="43" t="s">
+      <c r="Q15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
       <c r="T15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1376,11 +1376,11 @@
     <row r="21" spans="4:43" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="2"/>
       <c r="L21" s="3"/>
     </row>
@@ -1455,11 +1455,11 @@
       <c r="I27" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
       <c r="M27" s="21" t="s">
         <v>11</v>
       </c>
@@ -1472,11 +1472,11 @@
       <c r="P27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q27" s="44" t="s">
+      <c r="Q27" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
       <c r="T27" s="21" t="s">
         <v>11</v>
       </c>
@@ -1679,11 +1679,11 @@
     <row r="33" spans="4:43" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1691,9 +1691,9 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
+      <c r="AJ33" s="48"/>
+      <c r="AK33" s="48"/>
+      <c r="AL33" s="48"/>
       <c r="AM33" s="13"/>
       <c r="AN33" s="13"/>
       <c r="AO33" s="13"/>
@@ -1759,11 +1759,11 @@
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="43" t="s">
+      <c r="J36" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
       <c r="M36" s="11"/>
       <c r="N36" s="18"/>
       <c r="AG36" s="5"/>
@@ -1771,9 +1771,9 @@
       <c r="AI36" s="15"/>
       <c r="AJ36" s="16"/>
       <c r="AK36" s="13"/>
-      <c r="AL36" s="45"/>
-      <c r="AM36" s="45"/>
-      <c r="AN36" s="45"/>
+      <c r="AL36" s="48"/>
+      <c r="AM36" s="48"/>
+      <c r="AN36" s="48"/>
       <c r="AO36" s="16"/>
       <c r="AP36" s="16"/>
       <c r="AQ36" s="5"/>
@@ -1909,11 +1909,11 @@
     <row r="42" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D42" s="24"/>
       <c r="E42" s="22"/>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="21" t="s">
         <v>11</v>
       </c>
@@ -1935,11 +1935,11 @@
       <c r="O42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P42" s="44" t="s">
+      <c r="P42" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
       <c r="S42" s="21" t="s">
         <v>11</v>
       </c>
@@ -2048,11 +2048,11 @@
       </c>
       <c r="P45" s="11"/>
       <c r="Q45" s="13"/>
-      <c r="R45" s="43" t="s">
+      <c r="R45" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
       <c r="W45" s="5"/>
@@ -2187,11 +2187,11 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="44" t="s">
+      <c r="J51" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
       <c r="M51" s="2"/>
       <c r="N51" s="3"/>
     </row>
@@ -2228,11 +2228,11 @@
     <row r="54" spans="3:24" x14ac:dyDescent="0.25">
       <c r="F54" s="4"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="43" t="s">
+      <c r="H54" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
       <c r="K54" s="11"/>
       <c r="L54" s="13"/>
       <c r="M54" s="10" t="s">
@@ -2311,11 +2311,11 @@
     <row r="60" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
       <c r="H60" s="21" t="s">
         <v>11</v>
       </c>
@@ -2343,11 +2343,11 @@
       <c r="P60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q60" s="44" t="s">
+      <c r="Q60" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="R60" s="44"/>
-      <c r="S60" s="44"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
       <c r="T60" s="2"/>
       <c r="U60" s="3"/>
     </row>
@@ -2420,21 +2420,21 @@
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="13"/>
-      <c r="G63" s="43" t="s">
+      <c r="G63" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="13"/>
-      <c r="O63" s="43" t="s">
+      <c r="O63" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
       <c r="R63" s="11"/>
       <c r="S63" s="13"/>
       <c r="T63" s="10" t="s">
@@ -2579,11 +2579,11 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="44" t="s">
+      <c r="J69" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
@@ -2623,11 +2623,11 @@
     <row r="72" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F72" s="4"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="43" t="s">
+      <c r="H72" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
       <c r="K72" s="11"/>
       <c r="L72" s="5"/>
       <c r="M72" s="10" t="s">
@@ -2679,11 +2679,11 @@
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="13"/>
-      <c r="J75" s="43" t="s">
+      <c r="J75" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="6"/>
@@ -2765,11 +2765,11 @@
       <c r="E81" s="21"/>
       <c r="F81" s="21"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="44" t="s">
+      <c r="H81" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
       <c r="K81" s="21" t="s">
         <v>11</v>
       </c>
@@ -2788,11 +2788,11 @@
       <c r="P81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q81" s="44" t="s">
+      <c r="Q81" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="R81" s="44"/>
-      <c r="S81" s="44"/>
+      <c r="R81" s="49"/>
+      <c r="S81" s="49"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="3"/>
@@ -2858,11 +2858,11 @@
     <row r="84" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D84" s="4"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="43" t="s">
+      <c r="F84" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
       <c r="I84" s="11"/>
       <c r="J84" s="13"/>
       <c r="K84" s="10" t="s">
@@ -2871,11 +2871,11 @@
       <c r="L84" s="11"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
-      <c r="O84" s="43" t="s">
+      <c r="O84" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="P84" s="43"/>
-      <c r="Q84" s="43"/>
+      <c r="P84" s="50"/>
+      <c r="Q84" s="50"/>
       <c r="R84" s="11"/>
       <c r="S84" s="5"/>
       <c r="T84" s="10" t="s">
@@ -2970,11 +2970,11 @@
       </c>
       <c r="O87" s="11"/>
       <c r="P87" s="13"/>
-      <c r="Q87" s="43" t="s">
+      <c r="Q87" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="R87" s="43"/>
-      <c r="S87" s="43"/>
+      <c r="R87" s="50"/>
+      <c r="S87" s="50"/>
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
       <c r="V87" s="6"/>
@@ -3123,11 +3123,11 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="43" t="s">
+      <c r="L95" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="M95" s="43"/>
-      <c r="N95" s="43"/>
+      <c r="M95" s="50"/>
+      <c r="N95" s="50"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
@@ -3137,7 +3137,7 @@
       <c r="X95" t="s">
         <v>26</v>
       </c>
-      <c r="Y95" s="53">
+      <c r="Y95" s="46">
         <v>1010</v>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
       <c r="X96" t="s">
         <v>27</v>
       </c>
-      <c r="Y96" s="53">
+      <c r="Y96" s="46">
         <v>1011</v>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       <c r="X97" t="s">
         <v>28</v>
       </c>
-      <c r="Y97" s="53" t="s">
+      <c r="Y97" s="46" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       <c r="X98" t="s">
         <v>29</v>
       </c>
-      <c r="Y98" s="53" t="s">
+      <c r="Y98" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3239,21 +3239,21 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="5"/>
-      <c r="H99" s="43" t="s">
+      <c r="H99" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="50"/>
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
       <c r="O99" s="5"/>
-      <c r="P99" s="43" t="s">
+      <c r="P99" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="Q99" s="43"/>
-      <c r="R99" s="43"/>
+      <c r="Q99" s="50"/>
+      <c r="R99" s="50"/>
       <c r="S99" s="5"/>
       <c r="T99" s="6"/>
       <c r="U99" s="5"/>
@@ -3261,7 +3261,7 @@
       <c r="X99" t="s">
         <v>30</v>
       </c>
-      <c r="Y99" s="53" t="s">
+      <c r="Y99" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       <c r="X100" t="s">
         <v>31</v>
       </c>
-      <c r="Y100" s="53" t="s">
+      <c r="Y100" s="46" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3339,18 +3339,18 @@
       <c r="X101" t="s">
         <v>32</v>
       </c>
-      <c r="Y101" s="53" t="s">
+      <c r="Y101" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="102" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D102" s="4"/>
       <c r="E102" s="13"/>
-      <c r="F102" s="43" t="s">
+      <c r="F102" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
       <c r="I102" s="11"/>
       <c r="J102" s="13"/>
       <c r="K102" s="10" t="s">
@@ -3358,11 +3358,11 @@
       </c>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
-      <c r="N102" s="43" t="s">
+      <c r="N102" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="O102" s="43"/>
-      <c r="P102" s="43"/>
+      <c r="O102" s="50"/>
+      <c r="P102" s="50"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="12"/>
       <c r="S102" s="10" t="s">
@@ -3486,11 +3486,11 @@
       </c>
       <c r="N105" s="11"/>
       <c r="O105" s="13"/>
-      <c r="P105" s="43" t="s">
+      <c r="P105" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Q105" s="43"/>
-      <c r="R105" s="43"/>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="50"/>
       <c r="S105" s="11"/>
       <c r="T105" s="18"/>
       <c r="U105" s="5"/>
@@ -3636,17 +3636,17 @@
       <c r="T110" s="9"/>
     </row>
     <row r="112" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="R112" s="46" t="s">
+      <c r="R112" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="S112" s="46"/>
-      <c r="T112" s="46"/>
-      <c r="U112" s="46"/>
-      <c r="V112" s="46"/>
+      <c r="S112" s="47"/>
+      <c r="T112" s="47"/>
+      <c r="U112" s="47"/>
+      <c r="V112" s="47"/>
     </row>
     <row r="113" spans="2:41" x14ac:dyDescent="0.25">
       <c r="Q113" s="30"/>
-      <c r="R113" s="50" t="s">
+      <c r="R113" s="43" t="s">
         <v>55</v>
       </c>
       <c r="S113" s="30" t="s">
@@ -3661,12 +3661,12 @@
     </row>
     <row r="114" spans="2:41" x14ac:dyDescent="0.25">
       <c r="Q114" s="30"/>
-      <c r="R114" s="51" t="s">
+      <c r="R114" s="44" t="s">
         <v>38</v>
       </c>
       <c r="S114" s="30"/>
       <c r="T114" s="30"/>
-      <c r="U114" s="52" t="s">
+      <c r="U114" s="45" t="s">
         <v>56</v>
       </c>
       <c r="V114" s="41" t="s">
@@ -3756,15 +3756,15 @@
       <c r="AC115" s="40"/>
       <c r="AD115" s="42"/>
       <c r="AE115" s="42"/>
-      <c r="AF115" s="47" t="s">
+      <c r="AF115" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="AG115" s="48"/>
-      <c r="AH115" s="48"/>
-      <c r="AI115" s="48"/>
-      <c r="AJ115" s="48"/>
-      <c r="AK115" s="48"/>
-      <c r="AL115" s="49"/>
+      <c r="AG115" s="52"/>
+      <c r="AH115" s="52"/>
+      <c r="AI115" s="52"/>
+      <c r="AJ115" s="52"/>
+      <c r="AK115" s="52"/>
+      <c r="AL115" s="53"/>
     </row>
     <row r="116" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B116" s="33" t="s">
@@ -3793,26 +3793,26 @@
       </c>
     </row>
     <row r="117" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B117" s="46" t="s">
+      <c r="B117" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C117" s="46"/>
-      <c r="D117" s="46"/>
-      <c r="E117" s="46"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="46"/>
-      <c r="I117" s="46"/>
-      <c r="J117" s="46"/>
-      <c r="K117" s="46"/>
-      <c r="L117" s="46"/>
-      <c r="M117" s="46"/>
-      <c r="N117" s="46"/>
-      <c r="O117" s="46"/>
-      <c r="P117" s="46"/>
-      <c r="Q117" s="46"/>
-      <c r="R117" s="46"/>
-      <c r="S117" s="46"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="47"/>
+      <c r="L117" s="47"/>
+      <c r="M117" s="47"/>
+      <c r="N117" s="47"/>
+      <c r="O117" s="47"/>
+      <c r="P117" s="47"/>
+      <c r="Q117" s="47"/>
+      <c r="R117" s="47"/>
+      <c r="S117" s="47"/>
       <c r="T117" s="33" t="s">
         <v>38</v>
       </c>
@@ -3859,40 +3859,40 @@
       </c>
     </row>
     <row r="119" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="D119" s="46" t="s">
+      <c r="D119" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E119" s="46"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="46"/>
-      <c r="J119" s="46"/>
-      <c r="K119" s="46"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="46"/>
-      <c r="N119" s="46"/>
-      <c r="O119" s="46"/>
-      <c r="P119" s="46"/>
-      <c r="Q119" s="46"/>
-      <c r="R119" s="46"/>
-      <c r="S119" s="46"/>
-      <c r="T119" s="46"/>
-      <c r="U119" s="46"/>
-      <c r="V119" s="46"/>
-      <c r="W119" s="46"/>
-      <c r="X119" s="46"/>
-      <c r="Y119" s="46"/>
-      <c r="Z119" s="46"/>
-      <c r="AA119" s="46"/>
-      <c r="AB119" s="46"/>
-      <c r="AC119" s="46"/>
-      <c r="AD119" s="46"/>
-      <c r="AE119" s="46"/>
-      <c r="AF119" s="46"/>
-      <c r="AG119" s="46"/>
-      <c r="AH119" s="46"/>
-      <c r="AI119" s="46"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="47"/>
+      <c r="N119" s="47"/>
+      <c r="O119" s="47"/>
+      <c r="P119" s="47"/>
+      <c r="Q119" s="47"/>
+      <c r="R119" s="47"/>
+      <c r="S119" s="47"/>
+      <c r="T119" s="47"/>
+      <c r="U119" s="47"/>
+      <c r="V119" s="47"/>
+      <c r="W119" s="47"/>
+      <c r="X119" s="47"/>
+      <c r="Y119" s="47"/>
+      <c r="Z119" s="47"/>
+      <c r="AA119" s="47"/>
+      <c r="AB119" s="47"/>
+      <c r="AC119" s="47"/>
+      <c r="AD119" s="47"/>
+      <c r="AE119" s="47"/>
+      <c r="AF119" s="47"/>
+      <c r="AG119" s="47"/>
+      <c r="AH119" s="47"/>
+      <c r="AI119" s="47"/>
     </row>
     <row r="120" spans="2:41" x14ac:dyDescent="0.25">
       <c r="N120" s="33" t="s">
@@ -3915,31 +3915,31 @@
       </c>
     </row>
     <row r="121" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="N121" s="46" t="s">
+      <c r="N121" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="O121" s="46"/>
-      <c r="P121" s="46"/>
-      <c r="Q121" s="46"/>
-      <c r="R121" s="46"/>
-      <c r="S121" s="46"/>
-      <c r="T121" s="46"/>
-      <c r="U121" s="46"/>
-      <c r="V121" s="46"/>
-      <c r="W121" s="46"/>
-      <c r="X121" s="46"/>
-      <c r="Y121" s="46"/>
-      <c r="Z121" s="46"/>
-      <c r="AA121" s="46"/>
-      <c r="AB121" s="46"/>
-      <c r="AC121" s="46"/>
-      <c r="AD121" s="46"/>
-      <c r="AE121" s="46"/>
-      <c r="AF121" s="46"/>
-      <c r="AG121" s="46"/>
-      <c r="AH121" s="46"/>
-      <c r="AI121" s="46"/>
-      <c r="AJ121" s="46"/>
+      <c r="O121" s="47"/>
+      <c r="P121" s="47"/>
+      <c r="Q121" s="47"/>
+      <c r="R121" s="47"/>
+      <c r="S121" s="47"/>
+      <c r="T121" s="47"/>
+      <c r="U121" s="47"/>
+      <c r="V121" s="47"/>
+      <c r="W121" s="47"/>
+      <c r="X121" s="47"/>
+      <c r="Y121" s="47"/>
+      <c r="Z121" s="47"/>
+      <c r="AA121" s="47"/>
+      <c r="AB121" s="47"/>
+      <c r="AC121" s="47"/>
+      <c r="AD121" s="47"/>
+      <c r="AE121" s="47"/>
+      <c r="AF121" s="47"/>
+      <c r="AG121" s="47"/>
+      <c r="AH121" s="47"/>
+      <c r="AI121" s="47"/>
+      <c r="AJ121" s="47"/>
     </row>
     <row r="122" spans="2:41" x14ac:dyDescent="0.25">
       <c r="R122" s="33" t="s">
@@ -3959,31 +3959,31 @@
       </c>
     </row>
     <row r="123" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="R123" s="46" t="s">
+      <c r="R123" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="S123" s="46"/>
-      <c r="T123" s="46"/>
-      <c r="U123" s="46"/>
-      <c r="V123" s="46"/>
-      <c r="W123" s="46"/>
-      <c r="X123" s="46"/>
-      <c r="Y123" s="46"/>
-      <c r="Z123" s="46"/>
-      <c r="AA123" s="46"/>
-      <c r="AB123" s="46"/>
-      <c r="AC123" s="46"/>
-      <c r="AD123" s="46"/>
-      <c r="AE123" s="46"/>
-      <c r="AF123" s="46"/>
-      <c r="AG123" s="46"/>
-      <c r="AH123" s="46"/>
-      <c r="AI123" s="46"/>
-      <c r="AJ123" s="46"/>
-      <c r="AK123" s="46"/>
-      <c r="AL123" s="46"/>
-      <c r="AM123" s="46"/>
-      <c r="AN123" s="46"/>
+      <c r="S123" s="47"/>
+      <c r="T123" s="47"/>
+      <c r="U123" s="47"/>
+      <c r="V123" s="47"/>
+      <c r="W123" s="47"/>
+      <c r="X123" s="47"/>
+      <c r="Y123" s="47"/>
+      <c r="Z123" s="47"/>
+      <c r="AA123" s="47"/>
+      <c r="AB123" s="47"/>
+      <c r="AC123" s="47"/>
+      <c r="AD123" s="47"/>
+      <c r="AE123" s="47"/>
+      <c r="AF123" s="47"/>
+      <c r="AG123" s="47"/>
+      <c r="AH123" s="47"/>
+      <c r="AI123" s="47"/>
+      <c r="AJ123" s="47"/>
+      <c r="AK123" s="47"/>
+      <c r="AL123" s="47"/>
+      <c r="AM123" s="47"/>
+      <c r="AN123" s="47"/>
     </row>
     <row r="124" spans="2:41" x14ac:dyDescent="0.25">
       <c r="T124" s="33" t="s">
@@ -4000,30 +4000,30 @@
       </c>
     </row>
     <row r="125" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="T125" s="46" t="s">
+      <c r="T125" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="U125" s="46"/>
-      <c r="V125" s="46"/>
-      <c r="W125" s="46"/>
-      <c r="X125" s="46"/>
-      <c r="Y125" s="46"/>
-      <c r="Z125" s="46"/>
-      <c r="AA125" s="46"/>
-      <c r="AB125" s="46"/>
-      <c r="AC125" s="46"/>
-      <c r="AD125" s="46"/>
-      <c r="AE125" s="46"/>
-      <c r="AF125" s="46"/>
-      <c r="AG125" s="46"/>
-      <c r="AH125" s="46"/>
-      <c r="AI125" s="46"/>
-      <c r="AJ125" s="46"/>
-      <c r="AK125" s="46"/>
-      <c r="AL125" s="46"/>
-      <c r="AM125" s="46"/>
-      <c r="AN125" s="46"/>
-      <c r="AO125" s="46"/>
+      <c r="U125" s="47"/>
+      <c r="V125" s="47"/>
+      <c r="W125" s="47"/>
+      <c r="X125" s="47"/>
+      <c r="Y125" s="47"/>
+      <c r="Z125" s="47"/>
+      <c r="AA125" s="47"/>
+      <c r="AB125" s="47"/>
+      <c r="AC125" s="47"/>
+      <c r="AD125" s="47"/>
+      <c r="AE125" s="47"/>
+      <c r="AF125" s="47"/>
+      <c r="AG125" s="47"/>
+      <c r="AH125" s="47"/>
+      <c r="AI125" s="47"/>
+      <c r="AJ125" s="47"/>
+      <c r="AK125" s="47"/>
+      <c r="AL125" s="47"/>
+      <c r="AM125" s="47"/>
+      <c r="AN125" s="47"/>
+      <c r="AO125" s="47"/>
     </row>
     <row r="126" spans="2:41" x14ac:dyDescent="0.25">
       <c r="V126" s="33" t="s">
@@ -4037,28 +4037,28 @@
       </c>
     </row>
     <row r="127" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="E127" s="46" t="s">
+      <c r="E127" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="46"/>
-      <c r="J127" s="46"/>
-      <c r="K127" s="46"/>
-      <c r="L127" s="46"/>
-      <c r="M127" s="46"/>
-      <c r="N127" s="46"/>
-      <c r="O127" s="46"/>
-      <c r="P127" s="46"/>
-      <c r="Q127" s="46"/>
-      <c r="R127" s="46"/>
-      <c r="S127" s="46"/>
-      <c r="T127" s="46"/>
-      <c r="U127" s="46"/>
-      <c r="V127" s="46"/>
-      <c r="W127" s="46"/>
-      <c r="X127" s="46"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
+      <c r="I127" s="47"/>
+      <c r="J127" s="47"/>
+      <c r="K127" s="47"/>
+      <c r="L127" s="47"/>
+      <c r="M127" s="47"/>
+      <c r="N127" s="47"/>
+      <c r="O127" s="47"/>
+      <c r="P127" s="47"/>
+      <c r="Q127" s="47"/>
+      <c r="R127" s="47"/>
+      <c r="S127" s="47"/>
+      <c r="T127" s="47"/>
+      <c r="U127" s="47"/>
+      <c r="V127" s="47"/>
+      <c r="W127" s="47"/>
+      <c r="X127" s="47"/>
     </row>
     <row r="128" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AD128" s="33" t="s">
@@ -4069,29 +4069,29 @@
       </c>
     </row>
     <row r="129" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="O129" s="46" t="s">
+      <c r="O129" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="P129" s="46"/>
-      <c r="Q129" s="46"/>
-      <c r="R129" s="46"/>
-      <c r="S129" s="46"/>
-      <c r="T129" s="46"/>
-      <c r="U129" s="46"/>
-      <c r="V129" s="46"/>
-      <c r="W129" s="46"/>
-      <c r="X129" s="46"/>
-      <c r="Y129" s="46"/>
-      <c r="Z129" s="46"/>
-      <c r="AA129" s="46"/>
-      <c r="AB129" s="46"/>
-      <c r="AC129" s="46"/>
-      <c r="AD129" s="46"/>
-      <c r="AE129" s="46"/>
-      <c r="AF129" s="46"/>
-      <c r="AG129" s="46"/>
-      <c r="AH129" s="46"/>
-      <c r="AI129" s="46"/>
+      <c r="P129" s="47"/>
+      <c r="Q129" s="47"/>
+      <c r="R129" s="47"/>
+      <c r="S129" s="47"/>
+      <c r="T129" s="47"/>
+      <c r="U129" s="47"/>
+      <c r="V129" s="47"/>
+      <c r="W129" s="47"/>
+      <c r="X129" s="47"/>
+      <c r="Y129" s="47"/>
+      <c r="Z129" s="47"/>
+      <c r="AA129" s="47"/>
+      <c r="AB129" s="47"/>
+      <c r="AC129" s="47"/>
+      <c r="AD129" s="47"/>
+      <c r="AE129" s="47"/>
+      <c r="AF129" s="47"/>
+      <c r="AG129" s="47"/>
+      <c r="AH129" s="47"/>
+      <c r="AI129" s="47"/>
     </row>
     <row r="130" spans="3:38" x14ac:dyDescent="0.25">
       <c r="AF130" s="33" t="s">
@@ -4099,52 +4099,69 @@
       </c>
     </row>
     <row r="131" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C131" s="46" t="s">
+      <c r="C131" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D131" s="46"/>
-      <c r="E131" s="46"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="46"/>
-      <c r="I131" s="46"/>
-      <c r="J131" s="46"/>
-      <c r="K131" s="46"/>
-      <c r="L131" s="46"/>
-      <c r="M131" s="46"/>
-      <c r="N131" s="46"/>
-      <c r="O131" s="46"/>
-      <c r="P131" s="46"/>
-      <c r="Q131" s="46"/>
-      <c r="R131" s="46"/>
-      <c r="S131" s="46"/>
-      <c r="T131" s="46"/>
-      <c r="U131" s="46"/>
-      <c r="V131" s="46"/>
-      <c r="W131" s="46"/>
-      <c r="X131" s="46"/>
-      <c r="Y131" s="46"/>
-      <c r="Z131" s="46"/>
-      <c r="AA131" s="46"/>
-      <c r="AB131" s="46"/>
-      <c r="AC131" s="46"/>
-      <c r="AD131" s="46"/>
-      <c r="AE131" s="46"/>
-      <c r="AF131" s="46"/>
-      <c r="AG131" s="46"/>
-      <c r="AH131" s="46"/>
-      <c r="AI131" s="46"/>
-      <c r="AJ131" s="46"/>
-      <c r="AK131" s="46"/>
-      <c r="AL131" s="46"/>
+      <c r="D131" s="47"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="47"/>
+      <c r="J131" s="47"/>
+      <c r="K131" s="47"/>
+      <c r="L131" s="47"/>
+      <c r="M131" s="47"/>
+      <c r="N131" s="47"/>
+      <c r="O131" s="47"/>
+      <c r="P131" s="47"/>
+      <c r="Q131" s="47"/>
+      <c r="R131" s="47"/>
+      <c r="S131" s="47"/>
+      <c r="T131" s="47"/>
+      <c r="U131" s="47"/>
+      <c r="V131" s="47"/>
+      <c r="W131" s="47"/>
+      <c r="X131" s="47"/>
+      <c r="Y131" s="47"/>
+      <c r="Z131" s="47"/>
+      <c r="AA131" s="47"/>
+      <c r="AB131" s="47"/>
+      <c r="AC131" s="47"/>
+      <c r="AD131" s="47"/>
+      <c r="AE131" s="47"/>
+      <c r="AF131" s="47"/>
+      <c r="AG131" s="47"/>
+      <c r="AH131" s="47"/>
+      <c r="AI131" s="47"/>
+      <c r="AJ131" s="47"/>
+      <c r="AK131" s="47"/>
+      <c r="AL131" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B117:S117"/>
-    <mergeCell ref="D119:AI119"/>
-    <mergeCell ref="N121:AJ121"/>
-    <mergeCell ref="R123:AN123"/>
-    <mergeCell ref="T125:AO125"/>
+    <mergeCell ref="P105:R105"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="O84:Q84"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="P99:R99"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="E60:G60"/>
     <mergeCell ref="E127:X127"/>
     <mergeCell ref="O129:AI129"/>
     <mergeCell ref="C131:AL131"/>
@@ -4161,28 +4178,11 @@
     <mergeCell ref="Q27:S27"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="P105:R105"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="O84:Q84"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="P99:R99"/>
+    <mergeCell ref="B117:S117"/>
+    <mergeCell ref="D119:AI119"/>
+    <mergeCell ref="N121:AJ121"/>
+    <mergeCell ref="R123:AN123"/>
+    <mergeCell ref="T125:AO125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Esquematico-(convertir).xlsx
+++ b/Esquematico-(convertir).xlsx
@@ -444,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -470,9 +470,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,16 +507,19 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,6 +529,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -813,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA107" sqref="AA107:AC108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,38 +897,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="3"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="56"/>
     </row>
     <row r="3" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="5"/>
       <c r="E3" s="10" t="s">
         <v>4</v>
@@ -933,10 +1006,10 @@
         <v>7</v>
       </c>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="6"/>
+      <c r="AE3" s="60"/>
     </row>
     <row r="4" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -992,75 +1065,75 @@
       <c r="AD4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="6"/>
+      <c r="AE4" s="60"/>
     </row>
     <row r="5" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="9"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="59"/>
     </row>
     <row r="8" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="49" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
     </row>
     <row r="9" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="60"/>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="60"/>
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
       <c r="AH10" s="48"/>
@@ -1075,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="5"/>
       <c r="K11" s="10" t="s">
         <v>5</v>
@@ -1097,7 +1170,7 @@
       <c r="H12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="8" t="s">
         <v>1</v>
       </c>
@@ -1123,31 +1196,31 @@
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="3"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="56"/>
       <c r="AF14" s="13"/>
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
@@ -1194,11 +1267,11 @@
       <c r="P15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="50" t="s">
+      <c r="Q15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
       <c r="T15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1249,17 +1322,17 @@
       <c r="N16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
       <c r="Q16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="5"/>
+      <c r="R16" s="62"/>
       <c r="S16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="5" t="s">
         <v>1</v>
       </c>
@@ -1277,79 +1350,79 @@
       </c>
     </row>
     <row r="17" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
       <c r="Q17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R17" s="5"/>
+      <c r="R17" s="62"/>
       <c r="S17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="6"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="60"/>
     </row>
     <row r="18" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
       <c r="O18" s="5"/>
       <c r="P18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="11"/>
-      <c r="R18" s="5"/>
+      <c r="R18" s="62"/>
       <c r="S18" s="5"/>
       <c r="T18" s="10" t="s">
         <v>5</v>
       </c>
       <c r="U18" s="11"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="6"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="60"/>
     </row>
     <row r="19" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
       <c r="O19" s="8" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1430,7 @@
       <c r="Q19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="58"/>
       <c r="S19" s="8" t="s">
         <v>1</v>
       </c>
@@ -1365,28 +1438,28 @@
       <c r="U19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="9"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="59"/>
     </row>
     <row r="21" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="49" t="s">
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="3"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="5" t="s">
         <v>1</v>
       </c>
@@ -1394,21 +1467,21 @@
       <c r="J22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="60"/>
     </row>
     <row r="24" spans="4:43" x14ac:dyDescent="0.25">
       <c r="F24" s="4"/>
@@ -1416,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="5"/>
       <c r="K24" s="10" t="s">
         <v>10</v>
@@ -1431,7 +1504,7 @@
       <c r="H25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="8"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="8" t="s">
         <v>1</v>
       </c>
@@ -1455,11 +1528,11 @@
       <c r="I27" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="J27" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
       <c r="M27" s="21" t="s">
         <v>11</v>
       </c>
@@ -1472,11 +1545,11 @@
       <c r="P27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q27" s="49" t="s">
+      <c r="Q27" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
       <c r="T27" s="21" t="s">
         <v>11</v>
       </c>
@@ -1512,28 +1585,28 @@
       <c r="G28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="62"/>
       <c r="L28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
       <c r="Q28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="5"/>
+      <c r="R28" s="62"/>
       <c r="S28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
       <c r="V28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1552,79 +1625,79 @@
     </row>
     <row r="29" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D29" s="14"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="62"/>
       <c r="L29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
       <c r="Q29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R29" s="5"/>
+      <c r="R29" s="62"/>
       <c r="S29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="6"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="60"/>
     </row>
     <row r="30" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D30" s="14"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
       <c r="H30" s="5"/>
       <c r="I30" s="10" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="11"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="62"/>
       <c r="L30" s="5"/>
       <c r="M30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="11"/>
-      <c r="O30" s="5"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
       <c r="P30" s="10" t="s">
         <v>6</v>
       </c>
       <c r="Q30" s="11"/>
-      <c r="R30" s="5"/>
+      <c r="R30" s="62"/>
       <c r="S30" s="5"/>
       <c r="T30" s="10" t="s">
         <v>10</v>
       </c>
       <c r="U30" s="11"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="6"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="60"/>
     </row>
     <row r="31" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D31" s="14"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="8" t="s">
         <v>1</v>
       </c>
@@ -1632,7 +1705,7 @@
       <c r="J31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="8"/>
+      <c r="K31" s="58"/>
       <c r="L31" s="8" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +1720,7 @@
       <c r="Q31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R31" s="8"/>
+      <c r="R31" s="58"/>
       <c r="S31" s="8" t="s">
         <v>1</v>
       </c>
@@ -1655,13 +1728,13 @@
       <c r="U31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="9"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="59"/>
     </row>
     <row r="32" spans="4:43" x14ac:dyDescent="0.25">
       <c r="AG32" s="5"/>
@@ -1677,17 +1750,17 @@
       <c r="AQ32" s="5"/>
     </row>
     <row r="33" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="49" t="s">
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="3"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="56"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
@@ -1701,19 +1774,19 @@
       <c r="AQ33" s="5"/>
     </row>
     <row r="34" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="6"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="60"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
@@ -1727,19 +1800,19 @@
       <c r="AQ34" s="5"/>
     </row>
     <row r="35" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
       <c r="H35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="6"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="60"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
@@ -1758,17 +1831,17 @@
         <v>9</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="50" t="s">
+      <c r="I36" s="62"/>
+      <c r="J36" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="18"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="68"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="13"/>
-      <c r="AI36" s="15"/>
+      <c r="AI36" s="44"/>
       <c r="AJ36" s="16"/>
       <c r="AK36" s="13"/>
       <c r="AL36" s="48"/>
@@ -1786,16 +1859,16 @@
       <c r="H37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K37" s="5"/>
+      <c r="K37" s="62"/>
       <c r="L37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="6"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="68"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="13"/>
       <c r="AI37" s="13"/>
@@ -1810,19 +1883,19 @@
     </row>
     <row r="38" spans="4:43" x14ac:dyDescent="0.25">
       <c r="E38" s="14"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="62"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="62"/>
       <c r="L38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="6"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="68"/>
       <c r="AG38" s="5"/>
       <c r="AH38" s="13"/>
       <c r="AI38" s="13"/>
@@ -1837,14 +1910,14 @@
     </row>
     <row r="39" spans="4:43" x14ac:dyDescent="0.25">
       <c r="E39" s="14"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="5"/>
       <c r="I39" s="10" t="s">
         <v>4</v>
       </c>
       <c r="J39" s="11"/>
-      <c r="K39" s="5"/>
+      <c r="K39" s="62"/>
       <c r="L39" s="5"/>
       <c r="M39" s="10" t="s">
         <v>5</v>
@@ -1864,8 +1937,8 @@
     </row>
     <row r="40" spans="4:43" x14ac:dyDescent="0.25">
       <c r="E40" s="14"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="58"/>
       <c r="H40" s="8" t="s">
         <v>1</v>
       </c>
@@ -1873,7 +1946,7 @@
       <c r="J40" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="8"/>
+      <c r="K40" s="58"/>
       <c r="L40" s="8" t="s">
         <v>1</v>
       </c>
@@ -1907,13 +1980,13 @@
       <c r="AQ41" s="5"/>
     </row>
     <row r="42" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D42" s="24"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="49" t="s">
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
       <c r="I42" s="21" t="s">
         <v>11</v>
       </c>
@@ -1935,11 +2008,11 @@
       <c r="O42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P42" s="49" t="s">
+      <c r="P42" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
       <c r="S42" s="21" t="s">
         <v>11</v>
       </c>
@@ -1958,17 +2031,17 @@
       <c r="X42" s="3"/>
     </row>
     <row r="43" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D43" s="17"/>
-      <c r="E43" s="13"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
       <c r="F43" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="62"/>
       <c r="H43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
       <c r="K43" s="5" t="s">
         <v>1</v>
       </c>
@@ -1976,18 +2049,18 @@
       <c r="M43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
       <c r="P43" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q43" s="5"/>
+      <c r="Q43" s="62"/>
       <c r="R43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="62"/>
       <c r="V43" s="5" t="s">
         <v>1</v>
       </c>
@@ -1997,35 +2070,35 @@
       </c>
     </row>
     <row r="44" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
       <c r="F44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="5"/>
+      <c r="G44" s="62"/>
       <c r="H44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
       <c r="P44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q44" s="5"/>
+      <c r="Q44" s="62"/>
       <c r="R44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="6"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="60"/>
     </row>
     <row r="45" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
@@ -2033,30 +2106,30 @@
         <v>6</v>
       </c>
       <c r="F45" s="11"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="62"/>
       <c r="H45" s="5"/>
       <c r="I45" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J45" s="11"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
       <c r="N45" s="13"/>
       <c r="O45" s="10" t="s">
         <v>9</v>
       </c>
       <c r="P45" s="11"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="50" t="s">
+      <c r="Q45" s="62"/>
+      <c r="R45" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="6"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="60"/>
     </row>
     <row r="46" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D46" s="4" t="s">
@@ -2066,7 +2139,7 @@
       <c r="F46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="5"/>
+      <c r="G46" s="62"/>
       <c r="H46" s="5" t="s">
         <v>1</v>
       </c>
@@ -2074,9 +2147,9 @@
       <c r="J46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
       <c r="N46" s="13" t="s">
         <v>17</v>
       </c>
@@ -2084,86 +2157,86 @@
       <c r="P46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q46" s="5"/>
+      <c r="Q46" s="62"/>
       <c r="R46" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S46" s="5"/>
+      <c r="S46" s="62"/>
       <c r="T46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="6"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="60"/>
     </row>
     <row r="47" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
+      <c r="Q47" s="62"/>
       <c r="R47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S47" s="5"/>
+      <c r="S47" s="62"/>
       <c r="T47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="6"/>
+      <c r="U47" s="67"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="60"/>
     </row>
     <row r="48" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="10" t="s">
         <v>4</v>
       </c>
       <c r="R48" s="11"/>
-      <c r="S48" s="5"/>
+      <c r="S48" s="62"/>
       <c r="T48" s="5"/>
       <c r="U48" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="11"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="6"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="60"/>
     </row>
     <row r="49" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
       <c r="P49" s="8" t="s">
         <v>1</v>
       </c>
@@ -2171,7 +2244,7 @@
       <c r="R49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="8"/>
+      <c r="S49" s="58"/>
       <c r="T49" s="8" t="s">
         <v>1</v>
       </c>
@@ -2179,61 +2252,61 @@
       <c r="V49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W49" s="8"/>
-      <c r="X49" s="9"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="59"/>
     </row>
     <row r="51" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F51" s="1"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="49" t="s">
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="3"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="56"/>
     </row>
     <row r="52" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
       <c r="J52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K52" s="5"/>
+      <c r="K52" s="62"/>
       <c r="L52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="5"/>
-      <c r="N52" s="6"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="60"/>
     </row>
     <row r="53" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F53" s="4"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
       <c r="J53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="62"/>
       <c r="L53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M53" s="5"/>
-      <c r="N53" s="6"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="60"/>
     </row>
     <row r="54" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F54" s="4"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="50" t="s">
+      <c r="F54" s="61"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="11"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="62"/>
       <c r="L54" s="13"/>
       <c r="M54" s="10" t="s">
         <v>8</v>
@@ -2241,16 +2314,16 @@
       <c r="N54" s="18"/>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F55" s="4"/>
-      <c r="G55" s="5"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I55" s="5"/>
+      <c r="I55" s="62"/>
       <c r="J55" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="K55" s="62"/>
       <c r="L55" s="13" t="s">
         <v>17</v>
       </c>
@@ -2260,19 +2333,19 @@
       </c>
     </row>
     <row r="56" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="62"/>
       <c r="H56" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="5"/>
+      <c r="I56" s="62"/>
       <c r="J56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="6"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="60"/>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.25">
       <c r="F57" s="4"/>
@@ -2280,14 +2353,14 @@
         <v>6</v>
       </c>
       <c r="H57" s="11"/>
-      <c r="I57" s="5"/>
+      <c r="I57" s="62"/>
       <c r="J57" s="5"/>
       <c r="K57" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L57" s="11"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="6"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="60"/>
     </row>
     <row r="58" spans="3:24" x14ac:dyDescent="0.25">
       <c r="F58" s="7" t="s">
@@ -2297,7 +2370,7 @@
       <c r="H58" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="8"/>
+      <c r="I58" s="58"/>
       <c r="J58" s="8" t="s">
         <v>1</v>
       </c>
@@ -2305,17 +2378,17 @@
       <c r="L58" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="8"/>
-      <c r="N58" s="9"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="59"/>
     </row>
     <row r="60" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="49" t="s">
+      <c r="C60" s="54"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
       <c r="H60" s="21" t="s">
         <v>11</v>
       </c>
@@ -2343,27 +2416,27 @@
       <c r="P60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q60" s="49" t="s">
+      <c r="Q60" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R60" s="49"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="3"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="55"/>
+      <c r="U60" s="56"/>
     </row>
     <row r="61" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C61" s="4"/>
-      <c r="D61" s="5"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="5"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="73"/>
       <c r="K61" s="5" t="s">
         <v>1</v>
       </c>
@@ -2371,47 +2444,47 @@
       <c r="M61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="62"/>
       <c r="Q61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R61" s="5"/>
+      <c r="R61" s="62"/>
       <c r="S61" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T61" s="5"/>
-      <c r="U61" s="6"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="60"/>
     </row>
     <row r="62" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C62" s="4"/>
-      <c r="D62" s="5"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="62"/>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="5"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="62"/>
       <c r="Q62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R62" s="5"/>
+      <c r="R62" s="62"/>
       <c r="S62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T62" s="5"/>
-      <c r="U62" s="6"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="60"/>
     </row>
     <row r="63" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C63" s="4"/>
@@ -2419,23 +2492,23 @@
         <v>9</v>
       </c>
       <c r="E63" s="11"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="50" t="s">
+      <c r="F63" s="62"/>
+      <c r="G63" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="50" t="s">
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P63" s="50"/>
-      <c r="Q63" s="50"/>
-      <c r="R63" s="11"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="62"/>
       <c r="S63" s="13"/>
       <c r="T63" s="10" t="s">
         <v>8</v>
@@ -2450,27 +2523,27 @@
       <c r="E64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="5"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H64" s="5"/>
+      <c r="H64" s="62"/>
       <c r="I64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
       <c r="O64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P64" s="5"/>
+      <c r="P64" s="62"/>
       <c r="Q64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R64" s="5"/>
+      <c r="R64" s="62"/>
       <c r="S64" s="13" t="s">
         <v>17</v>
       </c>
@@ -2480,66 +2553,66 @@
       </c>
     </row>
     <row r="65" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C65" s="4"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
       <c r="G65" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="5"/>
+      <c r="H65" s="62"/>
       <c r="I65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="62"/>
       <c r="O65" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P65" s="5"/>
+      <c r="P65" s="62"/>
       <c r="Q65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="6"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="62"/>
+      <c r="U65" s="60"/>
     </row>
     <row r="66" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C66" s="4"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
       <c r="F66" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G66" s="11"/>
-      <c r="H66" s="5"/>
+      <c r="H66" s="62"/>
       <c r="I66" s="5"/>
       <c r="J66" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="11"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
       <c r="N66" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O66" s="11"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="62"/>
+      <c r="Q66" s="12"/>
       <c r="R66" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="6"/>
+      <c r="S66" s="62"/>
+      <c r="T66" s="62"/>
+      <c r="U66" s="60"/>
     </row>
     <row r="67" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="58"/>
       <c r="E67" s="8" t="s">
         <v>1</v>
       </c>
@@ -2547,7 +2620,7 @@
       <c r="G67" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H67" s="8"/>
+      <c r="H67" s="58"/>
       <c r="I67" s="8" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2628,7 @@
       <c r="K67" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L67" s="8"/>
+      <c r="L67" s="53"/>
       <c r="M67" s="8" t="s">
         <v>1</v>
       </c>
@@ -2563,7 +2636,7 @@
       <c r="O67" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P67" s="8"/>
+      <c r="P67" s="58"/>
       <c r="Q67" s="8" t="s">
         <v>1</v>
       </c>
@@ -2571,82 +2644,82 @@
       <c r="S67" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T67" s="8"/>
-      <c r="U67" s="9"/>
+      <c r="T67" s="58"/>
+      <c r="U67" s="59"/>
     </row>
     <row r="69" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="F69" s="1"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="49" t="s">
+      <c r="F69" s="54"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="3"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="56"/>
     </row>
     <row r="70" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="F70" s="4"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
       <c r="J70" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="62"/>
       <c r="L70" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="6"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="62"/>
+      <c r="O70" s="60"/>
     </row>
     <row r="71" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="F71" s="4"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
       <c r="J71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K71" s="5"/>
+      <c r="K71" s="62"/>
       <c r="L71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="6"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="62"/>
+      <c r="O71" s="60"/>
     </row>
     <row r="72" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="F72" s="4"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="50" t="s">
+      <c r="F72" s="61"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="11"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="62"/>
       <c r="L72" s="5"/>
       <c r="M72" s="10" t="s">
         <v>7</v>
       </c>
       <c r="N72" s="11"/>
-      <c r="O72" s="6"/>
+      <c r="O72" s="60"/>
     </row>
     <row r="73" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="F73" s="4"/>
-      <c r="G73" s="5"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="62"/>
       <c r="H73" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="62"/>
       <c r="J73" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K73" s="5"/>
+      <c r="K73" s="62"/>
       <c r="L73" s="5" t="s">
         <v>1</v>
       </c>
@@ -2654,23 +2727,23 @@
       <c r="N73" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O73" s="6"/>
+      <c r="O73" s="60"/>
     </row>
     <row r="74" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="F74" s="4"/>
-      <c r="G74" s="5"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="62"/>
       <c r="H74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="5"/>
+      <c r="I74" s="62"/>
       <c r="J74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="62"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="6"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="62"/>
+      <c r="O74" s="60"/>
     </row>
     <row r="75" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F75" s="4"/>
@@ -2678,15 +2751,15 @@
         <v>9</v>
       </c>
       <c r="H75" s="11"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="50" t="s">
+      <c r="I75" s="62"/>
+      <c r="J75" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="6"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+      <c r="O75" s="60"/>
     </row>
     <row r="76" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F76" s="4" t="s">
@@ -2696,53 +2769,53 @@
       <c r="H76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I76" s="5"/>
+      <c r="I76" s="62"/>
       <c r="J76" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="62"/>
       <c r="L76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="6"/>
+      <c r="M76" s="62"/>
+      <c r="N76" s="62"/>
+      <c r="O76" s="60"/>
     </row>
     <row r="77" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="F77" s="4"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
       <c r="J77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K77" s="5"/>
+      <c r="K77" s="62"/>
       <c r="L77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="6"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="62"/>
+      <c r="O77" s="60"/>
     </row>
     <row r="78" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="F78" s="4"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
       <c r="I78" s="10" t="s">
         <v>4</v>
       </c>
       <c r="J78" s="11"/>
-      <c r="K78" s="5"/>
+      <c r="K78" s="62"/>
       <c r="L78" s="5"/>
       <c r="M78" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N78" s="11"/>
-      <c r="O78" s="6"/>
+      <c r="N78" s="67"/>
+      <c r="O78" s="68"/>
     </row>
     <row r="79" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="F79" s="7"/>
-      <c r="G79" s="8"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="8" t="s">
         <v>1</v>
       </c>
@@ -2750,7 +2823,7 @@
       <c r="J79" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K79" s="8"/>
+      <c r="K79" s="58"/>
       <c r="L79" s="8" t="s">
         <v>1</v>
       </c>
@@ -2761,15 +2834,15 @@
       <c r="O79" s="9"/>
     </row>
     <row r="81" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D81" s="25"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="49" t="s">
+      <c r="D81" s="74"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
       <c r="K81" s="21" t="s">
         <v>11</v>
       </c>
@@ -2788,113 +2861,113 @@
       <c r="P81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q81" s="49" t="s">
+      <c r="Q81" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="R81" s="49"/>
-      <c r="S81" s="49"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="3"/>
+      <c r="R81" s="46"/>
+      <c r="S81" s="46"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="55"/>
+      <c r="V81" s="56"/>
     </row>
     <row r="82" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D82" s="4"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
       <c r="H82" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I82" s="5"/>
+      <c r="I82" s="62"/>
       <c r="J82" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="62"/>
       <c r="Q82" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R82" s="5"/>
+      <c r="R82" s="62"/>
       <c r="S82" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="6"/>
+      <c r="T82" s="62"/>
+      <c r="U82" s="62"/>
+      <c r="V82" s="60"/>
     </row>
     <row r="83" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D83" s="4"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
       <c r="H83" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="5"/>
+      <c r="I83" s="62"/>
       <c r="J83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
       <c r="Q83" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R83" s="5"/>
+      <c r="R83" s="62"/>
       <c r="S83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="6"/>
+      <c r="T83" s="62"/>
+      <c r="U83" s="62"/>
+      <c r="V83" s="60"/>
     </row>
     <row r="84" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D84" s="4"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="50" t="s">
+      <c r="D84" s="61"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="50"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="11"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="62"/>
       <c r="J84" s="13"/>
       <c r="K84" s="10" t="s">
         <v>8</v>
       </c>
       <c r="L84" s="11"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="50" t="s">
+      <c r="M84" s="62"/>
+      <c r="N84" s="62"/>
+      <c r="O84" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="P84" s="50"/>
-      <c r="Q84" s="50"/>
-      <c r="R84" s="11"/>
+      <c r="P84" s="45"/>
+      <c r="Q84" s="45"/>
+      <c r="R84" s="62"/>
       <c r="S84" s="5"/>
       <c r="T84" s="10" t="s">
         <v>7</v>
       </c>
       <c r="U84" s="11"/>
-      <c r="V84" s="6"/>
+      <c r="V84" s="60"/>
     </row>
     <row r="85" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D85" s="4"/>
-      <c r="E85" s="5"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="62"/>
       <c r="F85" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G85" s="5"/>
+      <c r="G85" s="62"/>
       <c r="H85" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I85" s="5"/>
+      <c r="I85" s="62"/>
       <c r="J85" s="13" t="s">
         <v>17</v>
       </c>
@@ -2902,16 +2975,16 @@
       <c r="L85" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
+      <c r="M85" s="62"/>
+      <c r="N85" s="62"/>
       <c r="O85" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P85" s="5"/>
+      <c r="P85" s="62"/>
       <c r="Q85" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R85" s="5"/>
+      <c r="R85" s="62"/>
       <c r="S85" s="5" t="s">
         <v>1</v>
       </c>
@@ -2919,36 +2992,36 @@
       <c r="U85" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V85" s="6"/>
+      <c r="V85" s="60"/>
     </row>
     <row r="86" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D86" s="4"/>
-      <c r="E86" s="5"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="62"/>
       <c r="F86" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="5"/>
+      <c r="G86" s="62"/>
       <c r="H86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="62"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P86" s="5"/>
+      <c r="P86" s="62"/>
       <c r="Q86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R86" s="5"/>
+      <c r="R86" s="62"/>
       <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="6"/>
+      <c r="T86" s="62"/>
+      <c r="U86" s="62"/>
+      <c r="V86" s="60"/>
     </row>
     <row r="87" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D87" s="4"/>
@@ -2956,28 +3029,28 @@
         <v>6</v>
       </c>
       <c r="F87" s="11"/>
-      <c r="G87" s="5"/>
+      <c r="G87" s="62"/>
       <c r="H87" s="5"/>
       <c r="I87" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J87" s="11"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="62"/>
       <c r="N87" s="10" t="s">
         <v>9</v>
       </c>
       <c r="O87" s="11"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="50" t="s">
+      <c r="P87" s="62"/>
+      <c r="Q87" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R87" s="50"/>
-      <c r="S87" s="50"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="6"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="45"/>
+      <c r="T87" s="62"/>
+      <c r="U87" s="62"/>
+      <c r="V87" s="60"/>
     </row>
     <row r="88" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D88" s="4" t="s">
@@ -2987,7 +3060,7 @@
       <c r="F88" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G88" s="5"/>
+      <c r="G88" s="62"/>
       <c r="H88" s="5" t="s">
         <v>1</v>
       </c>
@@ -2995,8 +3068,8 @@
       <c r="J88" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
+      <c r="K88" s="62"/>
+      <c r="L88" s="62"/>
       <c r="M88" s="5" t="s">
         <v>1</v>
       </c>
@@ -3004,80 +3077,80 @@
       <c r="O88" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P88" s="5"/>
+      <c r="P88" s="62"/>
       <c r="Q88" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R88" s="5"/>
+      <c r="R88" s="62"/>
       <c r="S88" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="6"/>
+      <c r="T88" s="62"/>
+      <c r="U88" s="62"/>
+      <c r="V88" s="60"/>
     </row>
     <row r="89" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D89" s="4"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="62"/>
+      <c r="K89" s="62"/>
+      <c r="L89" s="62"/>
+      <c r="M89" s="62"/>
+      <c r="N89" s="62"/>
+      <c r="O89" s="62"/>
+      <c r="P89" s="62"/>
       <c r="Q89" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R89" s="5"/>
+      <c r="R89" s="62"/>
       <c r="S89" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="6"/>
+      <c r="T89" s="62"/>
+      <c r="U89" s="62"/>
+      <c r="V89" s="60"/>
     </row>
     <row r="90" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D90" s="4"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="62"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="62"/>
+      <c r="O90" s="62"/>
       <c r="P90" s="10" t="s">
         <v>4</v>
       </c>
       <c r="Q90" s="11"/>
-      <c r="R90" s="5"/>
+      <c r="R90" s="62"/>
       <c r="S90" s="5"/>
       <c r="T90" s="10" t="s">
         <v>5</v>
       </c>
       <c r="U90" s="11"/>
-      <c r="V90" s="6"/>
+      <c r="V90" s="60"/>
     </row>
     <row r="91" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D91" s="7"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="58"/>
+      <c r="M91" s="58"/>
+      <c r="N91" s="58"/>
       <c r="O91" s="8" t="s">
         <v>1</v>
       </c>
@@ -3085,7 +3158,7 @@
       <c r="Q91" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="8"/>
+      <c r="R91" s="58"/>
       <c r="S91" s="8" t="s">
         <v>1</v>
       </c>
@@ -3093,7 +3166,7 @@
       <c r="U91" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="V91" s="9"/>
+      <c r="V91" s="59"/>
     </row>
     <row r="94" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D94" s="1"/>
@@ -3123,11 +3196,11 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="50" t="s">
+      <c r="L95" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="M95" s="50"/>
-      <c r="N95" s="50"/>
+      <c r="M95" s="45"/>
+      <c r="N95" s="45"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
@@ -3137,7 +3210,7 @@
       <c r="X95" t="s">
         <v>26</v>
       </c>
-      <c r="Y95" s="46">
+      <c r="Y95" s="43">
         <v>1010</v>
       </c>
     </row>
@@ -3148,7 +3221,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="29">
+      <c r="J96" s="26">
         <v>0</v>
       </c>
       <c r="K96" s="5" t="s">
@@ -3160,7 +3233,7 @@
       <c r="O96" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P96" s="28">
+      <c r="P96" s="25">
         <v>1</v>
       </c>
       <c r="Q96" s="5"/>
@@ -3170,11 +3243,11 @@
       <c r="X96" t="s">
         <v>27</v>
       </c>
-      <c r="Y96" s="46">
+      <c r="Y96" s="43">
         <v>1011</v>
       </c>
     </row>
-    <row r="97" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D97" s="4"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -3199,11 +3272,11 @@
       <c r="X97" t="s">
         <v>28</v>
       </c>
-      <c r="Y97" s="46" t="s">
+      <c r="Y97" s="43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -3230,30 +3303,30 @@
       <c r="X98" t="s">
         <v>29</v>
       </c>
-      <c r="Y98" s="46" t="s">
+      <c r="Y98" s="43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D99" s="26"/>
+    <row r="99" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D99" s="23"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="5"/>
-      <c r="H99" s="50" t="s">
+      <c r="H99" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
       <c r="O99" s="5"/>
-      <c r="P99" s="50" t="s">
+      <c r="P99" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="Q99" s="50"/>
-      <c r="R99" s="50"/>
+      <c r="Q99" s="45"/>
+      <c r="R99" s="45"/>
       <c r="S99" s="5"/>
       <c r="T99" s="6"/>
       <c r="U99" s="5"/>
@@ -3261,11 +3334,11 @@
       <c r="X99" t="s">
         <v>30</v>
       </c>
-      <c r="Y99" s="46" t="s">
+      <c r="Y99" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -3279,7 +3352,7 @@
       <c r="J100" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="28">
+      <c r="K100" s="25">
         <v>1</v>
       </c>
       <c r="L100" s="5"/>
@@ -3295,7 +3368,7 @@
       <c r="R100" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S100" s="28">
+      <c r="S100" s="25">
         <v>1</v>
       </c>
       <c r="T100" s="6"/>
@@ -3304,11 +3377,11 @@
       <c r="X100" t="s">
         <v>31</v>
       </c>
-      <c r="Y100" s="46" t="s">
+      <c r="Y100" s="43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D101" s="4"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -3339,18 +3412,18 @@
       <c r="X101" t="s">
         <v>32</v>
       </c>
-      <c r="Y101" s="46" t="s">
+      <c r="Y101" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D102" s="4"/>
       <c r="E102" s="13"/>
-      <c r="F102" s="50" t="s">
+      <c r="F102" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
       <c r="I102" s="11"/>
       <c r="J102" s="13"/>
       <c r="K102" s="10" t="s">
@@ -3358,21 +3431,21 @@
       </c>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
-      <c r="N102" s="50" t="s">
+      <c r="N102" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="O102" s="50"/>
-      <c r="P102" s="50"/>
+      <c r="O102" s="45"/>
+      <c r="P102" s="45"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="12"/>
       <c r="S102" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="T102" s="27"/>
+      <c r="T102" s="24"/>
       <c r="U102" s="5"/>
       <c r="V102" s="5"/>
     </row>
-    <row r="103" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D103" s="4"/>
       <c r="E103" s="5">
         <v>0</v>
@@ -3384,7 +3457,7 @@
       <c r="H103" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="28">
+      <c r="I103" s="25">
         <v>1</v>
       </c>
       <c r="J103" s="13" t="s">
@@ -3404,7 +3477,7 @@
       <c r="P103" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q103" s="28">
+      <c r="Q103" s="25">
         <v>1</v>
       </c>
       <c r="R103" s="5" t="s">
@@ -3416,26 +3489,8 @@
       </c>
       <c r="U103" s="5"/>
       <c r="V103" s="5"/>
-      <c r="AB103" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD103" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF103" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG103" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH103" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="4:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D104" s="4"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5" t="s">
@@ -3463,11 +3518,8 @@
       <c r="T104" s="6"/>
       <c r="U104" s="5"/>
       <c r="V104" s="5"/>
-      <c r="AB104" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="105" spans="4:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D105" s="4"/>
       <c r="E105" s="10" t="s">
         <v>6</v>
@@ -3486,17 +3538,17 @@
       </c>
       <c r="N105" s="11"/>
       <c r="O105" s="13"/>
-      <c r="P105" s="50" t="s">
+      <c r="P105" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q105" s="50"/>
-      <c r="R105" s="50"/>
+      <c r="Q105" s="45"/>
+      <c r="R105" s="45"/>
       <c r="S105" s="11"/>
       <c r="T105" s="18"/>
       <c r="U105" s="5"/>
       <c r="V105" s="5"/>
     </row>
-    <row r="106" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D106" s="4" t="s">
         <v>1</v>
       </c>
@@ -3530,14 +3582,14 @@
       <c r="R106" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S106" s="28">
+      <c r="S106" s="25">
         <v>1</v>
       </c>
       <c r="T106" s="6"/>
       <c r="U106" s="5"/>
       <c r="V106" s="5"/>
     </row>
-    <row r="107" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D107" s="4"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -3560,9 +3612,11 @@
       <c r="S107" s="5"/>
       <c r="T107" s="6"/>
       <c r="U107" s="5"/>
-      <c r="V107" s="5"/>
-    </row>
-    <row r="108" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="AA107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D108" s="4"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -3585,9 +3639,11 @@
       </c>
       <c r="T108" s="18"/>
       <c r="U108" s="5"/>
-      <c r="V108" s="5"/>
-    </row>
-    <row r="109" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="AA108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D109" s="4"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -3616,7 +3672,7 @@
       <c r="U109" s="5"/>
       <c r="V109" s="5"/>
     </row>
-    <row r="110" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D110" s="7"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
@@ -3634,8 +3690,23 @@
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
       <c r="T110" s="9"/>
-    </row>
-    <row r="112" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="V110" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="W110" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="X110" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y110" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z110" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="4:27" x14ac:dyDescent="0.25">
       <c r="R112" s="47" t="s">
         <v>52</v>
       </c>
@@ -3645,31 +3716,31 @@
       <c r="V112" s="47"/>
     </row>
     <row r="113" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="Q113" s="30"/>
-      <c r="R113" s="43" t="s">
+      <c r="Q113" s="27"/>
+      <c r="R113" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="S113" s="30" t="s">
+      <c r="S113" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="T113" s="30" t="s">
+      <c r="T113" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="U113" s="30" t="s">
+      <c r="U113" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="114" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="Q114" s="30"/>
-      <c r="R114" s="44" t="s">
+      <c r="Q114" s="27"/>
+      <c r="R114" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="S114" s="30"/>
-      <c r="T114" s="30"/>
-      <c r="U114" s="45" t="s">
+      <c r="S114" s="27"/>
+      <c r="T114" s="27"/>
+      <c r="U114" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="V114" s="41" t="s">
+      <c r="V114" s="38" t="s">
         <v>46</v>
       </c>
       <c r="W114" t="s">
@@ -3722,73 +3793,73 @@
       </c>
     </row>
     <row r="115" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
-      <c r="K115" s="37"/>
-      <c r="L115" s="37"/>
-      <c r="M115" s="32" t="s">
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="34"/>
+      <c r="L115" s="34"/>
+      <c r="M115" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="N115" s="38"/>
-      <c r="O115" s="38"/>
-      <c r="P115" s="38"/>
-      <c r="Q115" s="38"/>
-      <c r="R115" s="35"/>
-      <c r="S115" s="35"/>
-      <c r="T115" s="39"/>
-      <c r="U115" s="32" t="s">
+      <c r="N115" s="35"/>
+      <c r="O115" s="35"/>
+      <c r="P115" s="35"/>
+      <c r="Q115" s="35"/>
+      <c r="R115" s="32"/>
+      <c r="S115" s="32"/>
+      <c r="T115" s="36"/>
+      <c r="U115" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="V115" s="40"/>
-      <c r="W115" s="40"/>
-      <c r="X115" s="40"/>
-      <c r="Y115" s="40"/>
-      <c r="Z115" s="40"/>
-      <c r="AA115" s="40"/>
-      <c r="AB115" s="40"/>
-      <c r="AC115" s="40"/>
-      <c r="AD115" s="42"/>
-      <c r="AE115" s="42"/>
-      <c r="AF115" s="51" t="s">
+      <c r="V115" s="37"/>
+      <c r="W115" s="37"/>
+      <c r="X115" s="37"/>
+      <c r="Y115" s="37"/>
+      <c r="Z115" s="37"/>
+      <c r="AA115" s="37"/>
+      <c r="AB115" s="37"/>
+      <c r="AC115" s="37"/>
+      <c r="AD115" s="39"/>
+      <c r="AE115" s="39"/>
+      <c r="AF115" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="AG115" s="52"/>
-      <c r="AH115" s="52"/>
-      <c r="AI115" s="52"/>
-      <c r="AJ115" s="52"/>
-      <c r="AK115" s="52"/>
-      <c r="AL115" s="53"/>
+      <c r="AG115" s="50"/>
+      <c r="AH115" s="50"/>
+      <c r="AI115" s="50"/>
+      <c r="AJ115" s="50"/>
+      <c r="AK115" s="50"/>
+      <c r="AL115" s="51"/>
     </row>
     <row r="116" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B116" s="33" t="s">
+      <c r="B116" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D116" s="33" t="s">
+      <c r="D116" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N116" s="33" t="s">
+      <c r="N116" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="R116" s="33" t="s">
+      <c r="R116" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="T116" s="33" t="s">
+      <c r="T116" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="V116" s="33" t="s">
+      <c r="V116" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AD116" s="33" t="s">
+      <c r="AD116" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AF116" s="33" t="s">
+      <c r="AF116" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3813,48 +3884,48 @@
       <c r="Q117" s="47"/>
       <c r="R117" s="47"/>
       <c r="S117" s="47"/>
-      <c r="T117" s="33" t="s">
+      <c r="T117" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="U117" s="34"/>
-      <c r="V117" s="33" t="s">
+      <c r="U117" s="31"/>
+      <c r="V117" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="W117" s="34"/>
-      <c r="X117" s="34"/>
-      <c r="Y117" s="34"/>
-      <c r="Z117" s="34"/>
-      <c r="AA117" s="34"/>
-      <c r="AB117" s="34"/>
-      <c r="AC117" s="34"/>
-      <c r="AD117" s="33" t="s">
+      <c r="W117" s="31"/>
+      <c r="X117" s="31"/>
+      <c r="Y117" s="31"/>
+      <c r="Z117" s="31"/>
+      <c r="AA117" s="31"/>
+      <c r="AB117" s="31"/>
+      <c r="AC117" s="31"/>
+      <c r="AD117" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AE117" s="34"/>
-      <c r="AF117" s="33" t="s">
+      <c r="AE117" s="31"/>
+      <c r="AF117" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="118" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="D118" s="33" t="s">
+      <c r="D118" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N118" s="33" t="s">
+      <c r="N118" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="R118" s="33" t="s">
+      <c r="R118" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="T118" s="33" t="s">
+      <c r="T118" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="V118" s="33" t="s">
+      <c r="V118" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AD118" s="33" t="s">
+      <c r="AD118" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AF118" s="33" t="s">
+      <c r="AF118" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3895,22 +3966,22 @@
       <c r="AI119" s="47"/>
     </row>
     <row r="120" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="N120" s="33" t="s">
+      <c r="N120" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="R120" s="33" t="s">
+      <c r="R120" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="T120" s="33" t="s">
+      <c r="T120" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="V120" s="33" t="s">
+      <c r="V120" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AD120" s="33" t="s">
+      <c r="AD120" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AF120" s="33" t="s">
+      <c r="AF120" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3942,19 +4013,19 @@
       <c r="AJ121" s="47"/>
     </row>
     <row r="122" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="R122" s="33" t="s">
+      <c r="R122" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="T122" s="33" t="s">
+      <c r="T122" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="V122" s="33" t="s">
+      <c r="V122" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AD122" s="33" t="s">
+      <c r="AD122" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AF122" s="33" t="s">
+      <c r="AF122" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3986,16 +4057,16 @@
       <c r="AN123" s="47"/>
     </row>
     <row r="124" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="T124" s="33" t="s">
+      <c r="T124" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="V124" s="33" t="s">
+      <c r="V124" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AD124" s="33" t="s">
+      <c r="AD124" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AF124" s="33" t="s">
+      <c r="AF124" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4026,13 +4097,13 @@
       <c r="AO125" s="47"/>
     </row>
     <row r="126" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="V126" s="33" t="s">
+      <c r="V126" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AD126" s="33" t="s">
+      <c r="AD126" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AF126" s="33" t="s">
+      <c r="AF126" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4061,10 +4132,10 @@
       <c r="X127" s="47"/>
     </row>
     <row r="128" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="AD128" s="33" t="s">
+      <c r="AD128" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AF128" s="33" t="s">
+      <c r="AF128" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4094,7 +4165,7 @@
       <c r="AI129" s="47"/>
     </row>
     <row r="130" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="AF130" s="33" t="s">
+      <c r="AF130" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4139,29 +4210,86 @@
       <c r="AL131" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="P105:R105"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="O84:Q84"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="P99:R99"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="E60:G60"/>
+  <mergeCells count="134">
+    <mergeCell ref="D84:E86"/>
+    <mergeCell ref="D81:G83"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="M74:O77"/>
+    <mergeCell ref="F69:I71"/>
+    <mergeCell ref="D89:N91"/>
+    <mergeCell ref="V90:V91"/>
+    <mergeCell ref="R82:R86"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="T81:V83"/>
+    <mergeCell ref="T86:V89"/>
+    <mergeCell ref="R88:R91"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P85:P89"/>
+    <mergeCell ref="M84:N85"/>
+    <mergeCell ref="K82:P83"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="J86:M87"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F77:H78"/>
+    <mergeCell ref="I73:I77"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K70:K74"/>
+    <mergeCell ref="C60:D62"/>
+    <mergeCell ref="C65:D67"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="T65:U67"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="T60:U62"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="F54:G56"/>
+    <mergeCell ref="J62:N65"/>
+    <mergeCell ref="O61:P62"/>
+    <mergeCell ref="P64:P67"/>
+    <mergeCell ref="V44:X48"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="D42:E44"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="F38:G40"/>
+    <mergeCell ref="M36:N38"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="V29:AB31"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="F33:G35"/>
+    <mergeCell ref="K33:N35"/>
+    <mergeCell ref="E29:G31"/>
+    <mergeCell ref="M28:P29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="T28:U29"/>
+    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="K8:L10"/>
+    <mergeCell ref="F21:G23"/>
+    <mergeCell ref="K21:L23"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="D17:N19"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="D14:AB14"/>
+    <mergeCell ref="V17:AB19"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="C2:AE2"/>
+    <mergeCell ref="C5:AE5"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B117:S117"/>
+    <mergeCell ref="D119:AI119"/>
+    <mergeCell ref="N121:AJ121"/>
+    <mergeCell ref="R123:AN123"/>
+    <mergeCell ref="T125:AO125"/>
     <mergeCell ref="E127:X127"/>
     <mergeCell ref="O129:AI129"/>
     <mergeCell ref="C131:AL131"/>
@@ -4178,11 +4306,45 @@
     <mergeCell ref="Q27:S27"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B117:S117"/>
-    <mergeCell ref="D119:AI119"/>
-    <mergeCell ref="N121:AJ121"/>
-    <mergeCell ref="R123:AN123"/>
-    <mergeCell ref="T125:AO125"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="D47:O49"/>
+    <mergeCell ref="K44:M46"/>
+    <mergeCell ref="N43:O44"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="S43:U44"/>
+    <mergeCell ref="Q43:Q47"/>
+    <mergeCell ref="S46:S49"/>
+    <mergeCell ref="F51:I53"/>
+    <mergeCell ref="M51:N53"/>
+    <mergeCell ref="K52:K56"/>
+    <mergeCell ref="M56:N58"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="R61:R65"/>
+    <mergeCell ref="F72:G74"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="M69:O71"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="P105:R105"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="O84:Q84"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="P99:R99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
